--- a/dados_diarios/obitos_diarios_fx_etaria.xlsx
+++ b/dados_diarios/obitos_diarios_fx_etaria.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1653"/>
+  <dimension ref="A1:F1676"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,7 +418,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -730,7 +730,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -834,7 +834,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -912,7 +912,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -938,7 +938,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -1167,12 +1167,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>diabetes /pneumopatia crônica/obesidade</t>
+          <t>diabetes/doença cardiovascular crônica/pneumopatia crônica/obesidade</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>doença cardiovascular crônica/hipertensão arterial sistêmica</t>
+          <t>doença cardiovascular crônica/hipertensão arterial sistêmica/doença renal crônica</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>doença cardiovascular crônica /pneumopatia crônica</t>
+          <t>doença cardiovascular crônica/marca-passo/doença neurológica crônica/pneumopatia crônica</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>doença cardiovascular crônica</t>
+          <t>doença cardiovascular crônica/hipertensão arterial sistêmica</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>doença cardiovascular crônica</t>
+          <t>doença cardiovascular crônica/diabetes</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -1640,7 +1640,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>doença cardiovascular crônica /diabetes</t>
+          <t>doença cardiovascular crônica/doença neurológica crônica/diabetes</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -1692,7 +1692,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -1848,7 +1848,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -2186,7 +2186,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -2550,7 +2550,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -2732,7 +2732,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -2784,7 +2784,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -2810,7 +2810,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -3252,7 +3252,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -3278,7 +3278,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -3330,7 +3330,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -3382,7 +3382,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -3512,7 +3512,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -3668,7 +3668,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -3694,7 +3694,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -3772,7 +3772,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -3798,7 +3798,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -3902,7 +3902,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -4032,7 +4032,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -4058,7 +4058,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -4162,7 +4162,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -4370,7 +4370,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -4396,7 +4396,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -4474,7 +4474,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -4552,7 +4552,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -4578,7 +4578,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -4734,7 +4734,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -4760,7 +4760,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -4786,7 +4786,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -4838,7 +4838,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -4864,7 +4864,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -4916,7 +4916,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -4942,7 +4942,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -5020,7 +5020,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5046,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -5228,7 +5228,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -5280,7 +5280,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -5332,7 +5332,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -5358,7 +5358,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -5384,7 +5384,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -5410,7 +5410,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -5462,7 +5462,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -5592,7 +5592,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -5618,7 +5618,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -5644,7 +5644,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -5670,7 +5670,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -5722,7 +5722,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -5774,7 +5774,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -5800,7 +5800,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -5930,7 +5930,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -5982,7 +5982,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -6008,7 +6008,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -6034,7 +6034,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -6112,7 +6112,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -6164,7 +6164,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -6190,7 +6190,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -6268,7 +6268,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -6346,7 +6346,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -6372,7 +6372,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -6398,7 +6398,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -6424,7 +6424,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -6450,7 +6450,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -6528,7 +6528,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -6554,7 +6554,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -6580,7 +6580,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -6684,7 +6684,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -6710,7 +6710,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -6736,7 +6736,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -6762,7 +6762,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -6788,7 +6788,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -6814,7 +6814,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -6892,7 +6892,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -6944,7 +6944,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -6996,7 +6996,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -7022,7 +7022,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -7126,7 +7126,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -7152,7 +7152,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -7178,7 +7178,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -7204,7 +7204,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>Menos de 20 anos</t>
+          <t>Menos de 20</t>
         </is>
       </c>
     </row>
@@ -7230,7 +7230,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -7256,7 +7256,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -7282,7 +7282,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -7386,7 +7386,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -7412,7 +7412,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -7438,7 +7438,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -7464,7 +7464,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -7490,7 +7490,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -7542,7 +7542,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -7568,7 +7568,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -7646,7 +7646,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -7698,7 +7698,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -7802,7 +7802,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -7828,7 +7828,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -7906,7 +7906,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -7932,7 +7932,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -7958,7 +7958,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -7984,7 +7984,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -8036,7 +8036,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -8140,7 +8140,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -8270,7 +8270,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -8348,7 +8348,7 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -8374,7 +8374,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -8400,7 +8400,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -8478,7 +8478,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -8504,7 +8504,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -8530,7 +8530,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -8608,7 +8608,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -8686,7 +8686,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -8764,7 +8764,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -8842,7 +8842,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -8894,7 +8894,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -8946,7 +8946,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -8972,7 +8972,7 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -8998,7 +8998,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -9076,7 +9076,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -9128,7 +9128,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -9154,7 +9154,7 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -9206,7 +9206,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -9232,7 +9232,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -9284,7 +9284,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -9362,7 +9362,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -9414,7 +9414,7 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -9466,7 +9466,7 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -9492,7 +9492,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -9570,7 +9570,7 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -9622,7 +9622,7 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -9700,7 +9700,7 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -9726,7 +9726,7 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -9752,7 +9752,7 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -9804,7 +9804,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -9830,7 +9830,7 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -9856,7 +9856,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -9986,7 +9986,7 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -10064,7 +10064,7 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -10220,7 +10220,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -10246,7 +10246,7 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -10324,7 +10324,7 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -10350,7 +10350,7 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -10402,7 +10402,7 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -10428,7 +10428,7 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -10454,7 +10454,7 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -10506,7 +10506,7 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -10532,7 +10532,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -10558,7 +10558,7 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -10636,7 +10636,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -10662,7 +10662,7 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -10740,7 +10740,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -10792,7 +10792,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -10818,7 +10818,7 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -10844,7 +10844,7 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -10896,7 +10896,7 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -10948,7 +10948,7 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -10974,7 +10974,7 @@
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -11130,7 +11130,7 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -11156,7 +11156,7 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -11182,7 +11182,7 @@
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -11234,7 +11234,7 @@
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -11312,7 +11312,7 @@
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -11390,7 +11390,7 @@
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -11416,7 +11416,7 @@
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -11468,7 +11468,7 @@
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -11494,7 +11494,7 @@
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -11520,7 +11520,7 @@
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -11546,7 +11546,7 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -11598,7 +11598,7 @@
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -11624,7 +11624,7 @@
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -11676,7 +11676,7 @@
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -11702,7 +11702,7 @@
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -11728,7 +11728,7 @@
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -11832,7 +11832,7 @@
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -11910,7 +11910,7 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -11936,7 +11936,7 @@
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -11962,7 +11962,7 @@
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -11988,7 +11988,7 @@
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -12014,7 +12014,7 @@
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -12066,7 +12066,7 @@
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -12118,7 +12118,7 @@
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -12144,7 +12144,7 @@
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -12196,7 +12196,7 @@
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -12222,7 +12222,7 @@
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -12274,7 +12274,7 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -12300,7 +12300,7 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -12378,7 +12378,7 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -12430,7 +12430,7 @@
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -12508,7 +12508,7 @@
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -12560,7 +12560,7 @@
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -12586,7 +12586,7 @@
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -12638,7 +12638,7 @@
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -12664,7 +12664,7 @@
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -12690,7 +12690,7 @@
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -12820,7 +12820,7 @@
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -12950,7 +12950,7 @@
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -12976,7 +12976,7 @@
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -13080,7 +13080,7 @@
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -13106,7 +13106,7 @@
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -13132,7 +13132,7 @@
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -13210,7 +13210,7 @@
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -13236,7 +13236,7 @@
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -13262,7 +13262,7 @@
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -13340,7 +13340,7 @@
       </c>
       <c r="F499" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -13392,7 +13392,7 @@
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -13444,7 +13444,7 @@
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -13496,7 +13496,7 @@
       </c>
       <c r="F505" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -13522,7 +13522,7 @@
       </c>
       <c r="F506" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -13548,7 +13548,7 @@
       </c>
       <c r="F507" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -13574,7 +13574,7 @@
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -13730,7 +13730,7 @@
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -13756,7 +13756,7 @@
       </c>
       <c r="F515" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -13782,7 +13782,7 @@
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -13860,7 +13860,7 @@
       </c>
       <c r="F519" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -13964,7 +13964,7 @@
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -14016,7 +14016,7 @@
       </c>
       <c r="F525" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -14068,7 +14068,7 @@
       </c>
       <c r="F527" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -14120,7 +14120,7 @@
       </c>
       <c r="F529" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -14198,7 +14198,7 @@
       </c>
       <c r="F532" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -14224,7 +14224,7 @@
       </c>
       <c r="F533" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -14250,7 +14250,7 @@
       </c>
       <c r="F534" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -14328,7 +14328,7 @@
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -14354,7 +14354,7 @@
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -14432,7 +14432,7 @@
       </c>
       <c r="F541" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -14458,7 +14458,7 @@
       </c>
       <c r="F542" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -14484,7 +14484,7 @@
       </c>
       <c r="F543" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -14510,7 +14510,7 @@
       </c>
       <c r="F544" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -14562,7 +14562,7 @@
       </c>
       <c r="F546" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -14588,7 +14588,7 @@
       </c>
       <c r="F547" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -14614,7 +14614,7 @@
       </c>
       <c r="F548" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -14640,7 +14640,7 @@
       </c>
       <c r="F549" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -14666,7 +14666,7 @@
       </c>
       <c r="F550" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -14718,7 +14718,7 @@
       </c>
       <c r="F552" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -14770,7 +14770,7 @@
       </c>
       <c r="F554" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -14796,7 +14796,7 @@
       </c>
       <c r="F555" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -14848,7 +14848,7 @@
       </c>
       <c r="F557" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -14900,7 +14900,7 @@
       </c>
       <c r="F559" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -14926,7 +14926,7 @@
       </c>
       <c r="F560" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -14952,7 +14952,7 @@
       </c>
       <c r="F561" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -15056,7 +15056,7 @@
       </c>
       <c r="F565" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -15082,7 +15082,7 @@
       </c>
       <c r="F566" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -15108,7 +15108,7 @@
       </c>
       <c r="F567" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -15134,7 +15134,7 @@
       </c>
       <c r="F568" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -15186,7 +15186,7 @@
       </c>
       <c r="F570" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -15264,7 +15264,7 @@
       </c>
       <c r="F573" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -15290,7 +15290,7 @@
       </c>
       <c r="F574" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -15342,7 +15342,7 @@
       </c>
       <c r="F576" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -15394,7 +15394,7 @@
       </c>
       <c r="F578" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -15420,7 +15420,7 @@
       </c>
       <c r="F579" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -15472,7 +15472,7 @@
       </c>
       <c r="F581" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -15498,7 +15498,7 @@
       </c>
       <c r="F582" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -15550,7 +15550,7 @@
       </c>
       <c r="F584" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -15706,7 +15706,7 @@
       </c>
       <c r="F590" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -15732,7 +15732,7 @@
       </c>
       <c r="F591" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -15810,7 +15810,7 @@
       </c>
       <c r="F594" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -15836,7 +15836,7 @@
       </c>
       <c r="F595" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -15914,7 +15914,7 @@
       </c>
       <c r="F598" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -15966,7 +15966,7 @@
       </c>
       <c r="F600" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -15992,7 +15992,7 @@
       </c>
       <c r="F601" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -16070,7 +16070,7 @@
       </c>
       <c r="F604" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -16304,7 +16304,7 @@
       </c>
       <c r="F613" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -16356,7 +16356,7 @@
       </c>
       <c r="F615" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -16382,7 +16382,7 @@
       </c>
       <c r="F616" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -16408,7 +16408,7 @@
       </c>
       <c r="F617" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -16434,7 +16434,7 @@
       </c>
       <c r="F618" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -16486,7 +16486,7 @@
       </c>
       <c r="F620" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -16512,7 +16512,7 @@
       </c>
       <c r="F621" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -16538,7 +16538,7 @@
       </c>
       <c r="F622" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -16564,7 +16564,7 @@
       </c>
       <c r="F623" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -16590,7 +16590,7 @@
       </c>
       <c r="F624" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -16616,7 +16616,7 @@
       </c>
       <c r="F625" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -16642,7 +16642,7 @@
       </c>
       <c r="F626" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -16694,7 +16694,7 @@
       </c>
       <c r="F628" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -16720,7 +16720,7 @@
       </c>
       <c r="F629" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -16746,7 +16746,7 @@
       </c>
       <c r="F630" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -16772,7 +16772,7 @@
       </c>
       <c r="F631" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -16798,7 +16798,7 @@
       </c>
       <c r="F632" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -16902,7 +16902,7 @@
       </c>
       <c r="F636" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -16928,7 +16928,7 @@
       </c>
       <c r="F637" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -16954,7 +16954,7 @@
       </c>
       <c r="F638" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -17006,7 +17006,7 @@
       </c>
       <c r="F640" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -17032,7 +17032,7 @@
       </c>
       <c r="F641" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -17084,7 +17084,7 @@
       </c>
       <c r="F643" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -17110,7 +17110,7 @@
       </c>
       <c r="F644" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -17214,7 +17214,7 @@
       </c>
       <c r="F648" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -17266,7 +17266,7 @@
       </c>
       <c r="F650" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -17292,7 +17292,7 @@
       </c>
       <c r="F651" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -17318,7 +17318,7 @@
       </c>
       <c r="F652" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -17370,7 +17370,7 @@
       </c>
       <c r="F654" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -17474,7 +17474,7 @@
       </c>
       <c r="F658" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -17500,7 +17500,7 @@
       </c>
       <c r="F659" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -17526,7 +17526,7 @@
       </c>
       <c r="F660" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -17578,7 +17578,7 @@
       </c>
       <c r="F662" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -17604,7 +17604,7 @@
       </c>
       <c r="F663" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -17682,7 +17682,7 @@
       </c>
       <c r="F666" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -17708,7 +17708,7 @@
       </c>
       <c r="F667" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -17734,7 +17734,7 @@
       </c>
       <c r="F668" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -17786,7 +17786,7 @@
       </c>
       <c r="F670" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -17812,7 +17812,7 @@
       </c>
       <c r="F671" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -17864,7 +17864,7 @@
       </c>
       <c r="F673" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -17942,7 +17942,7 @@
       </c>
       <c r="F676" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -17968,7 +17968,7 @@
       </c>
       <c r="F677" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -17994,7 +17994,7 @@
       </c>
       <c r="F678" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -18020,7 +18020,7 @@
       </c>
       <c r="F679" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -18072,7 +18072,7 @@
       </c>
       <c r="F681" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -18124,7 +18124,7 @@
       </c>
       <c r="F683" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -18150,7 +18150,7 @@
       </c>
       <c r="F684" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -18176,7 +18176,7 @@
       </c>
       <c r="F685" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -18384,7 +18384,7 @@
       </c>
       <c r="F693" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -18514,7 +18514,7 @@
       </c>
       <c r="F698" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -18566,7 +18566,7 @@
       </c>
       <c r="F700" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -18618,7 +18618,7 @@
       </c>
       <c r="F702" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -18644,7 +18644,7 @@
       </c>
       <c r="F703" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -18670,7 +18670,7 @@
       </c>
       <c r="F704" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -18696,7 +18696,7 @@
       </c>
       <c r="F705" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -18878,7 +18878,7 @@
       </c>
       <c r="F712" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -19034,7 +19034,7 @@
       </c>
       <c r="F718" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -19060,7 +19060,7 @@
       </c>
       <c r="F719" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -19086,7 +19086,7 @@
       </c>
       <c r="F720" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -19112,7 +19112,7 @@
       </c>
       <c r="F721" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -19138,7 +19138,7 @@
       </c>
       <c r="F722" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -19164,7 +19164,7 @@
       </c>
       <c r="F723" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -19268,7 +19268,7 @@
       </c>
       <c r="F727" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -19346,7 +19346,7 @@
       </c>
       <c r="F730" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -19372,7 +19372,7 @@
       </c>
       <c r="F731" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -19398,7 +19398,7 @@
       </c>
       <c r="F732" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -19424,7 +19424,7 @@
       </c>
       <c r="F733" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -19450,7 +19450,7 @@
       </c>
       <c r="F734" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -19502,7 +19502,7 @@
       </c>
       <c r="F736" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -19554,7 +19554,7 @@
       </c>
       <c r="F738" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -19580,7 +19580,7 @@
       </c>
       <c r="F739" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -19632,7 +19632,7 @@
       </c>
       <c r="F741" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -19684,7 +19684,7 @@
       </c>
       <c r="F743" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -19736,7 +19736,7 @@
       </c>
       <c r="F745" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -19788,7 +19788,7 @@
       </c>
       <c r="F747" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -19814,7 +19814,7 @@
       </c>
       <c r="F748" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -19840,7 +19840,7 @@
       </c>
       <c r="F749" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -19866,7 +19866,7 @@
       </c>
       <c r="F750" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -19918,7 +19918,7 @@
       </c>
       <c r="F752" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -19970,7 +19970,7 @@
       </c>
       <c r="F754" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -19996,7 +19996,7 @@
       </c>
       <c r="F755" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -20048,7 +20048,7 @@
       </c>
       <c r="F757" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -20126,7 +20126,7 @@
       </c>
       <c r="F760" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -20152,7 +20152,7 @@
       </c>
       <c r="F761" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -20178,7 +20178,7 @@
       </c>
       <c r="F762" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -20256,7 +20256,7 @@
       </c>
       <c r="F765" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -20282,7 +20282,7 @@
       </c>
       <c r="F766" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -20308,7 +20308,7 @@
       </c>
       <c r="F767" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -20386,7 +20386,7 @@
       </c>
       <c r="F770" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -20438,7 +20438,7 @@
       </c>
       <c r="F772" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -20490,7 +20490,7 @@
       </c>
       <c r="F774" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -20568,7 +20568,7 @@
       </c>
       <c r="F777" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -20594,7 +20594,7 @@
       </c>
       <c r="F778" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -20646,7 +20646,7 @@
       </c>
       <c r="F780" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -20724,7 +20724,7 @@
       </c>
       <c r="F783" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -20880,7 +20880,7 @@
       </c>
       <c r="F789" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -20932,7 +20932,7 @@
       </c>
       <c r="F791" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -20984,7 +20984,7 @@
       </c>
       <c r="F793" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -21010,7 +21010,7 @@
       </c>
       <c r="F794" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -21036,7 +21036,7 @@
       </c>
       <c r="F795" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -21062,7 +21062,7 @@
       </c>
       <c r="F796" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -21088,7 +21088,7 @@
       </c>
       <c r="F797" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -21114,7 +21114,7 @@
       </c>
       <c r="F798" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -21140,7 +21140,7 @@
       </c>
       <c r="F799" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -21166,7 +21166,7 @@
       </c>
       <c r="F800" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -21192,7 +21192,7 @@
       </c>
       <c r="F801" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -21244,7 +21244,7 @@
       </c>
       <c r="F803" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -21270,7 +21270,7 @@
       </c>
       <c r="F804" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -21296,7 +21296,7 @@
       </c>
       <c r="F805" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -21348,7 +21348,7 @@
       </c>
       <c r="F807" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -21400,7 +21400,7 @@
       </c>
       <c r="F809" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -21530,7 +21530,7 @@
       </c>
       <c r="F814" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -21556,7 +21556,7 @@
       </c>
       <c r="F815" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -21660,7 +21660,7 @@
       </c>
       <c r="F819" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -21686,7 +21686,7 @@
       </c>
       <c r="F820" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -21738,7 +21738,7 @@
       </c>
       <c r="F822" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -21790,7 +21790,7 @@
       </c>
       <c r="F824" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -21868,7 +21868,7 @@
       </c>
       <c r="F827" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -21894,7 +21894,7 @@
       </c>
       <c r="F828" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -21920,7 +21920,7 @@
       </c>
       <c r="F829" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -21946,7 +21946,7 @@
       </c>
       <c r="F830" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -21972,7 +21972,7 @@
       </c>
       <c r="F831" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -22074,6 +22074,11 @@
           <t>prematuridade extrema</t>
         </is>
       </c>
+      <c r="F835" t="inlineStr">
+        <is>
+          <t>Menos de 20</t>
+        </is>
+      </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
@@ -22095,6 +22100,11 @@
           <t>sem comorbidade</t>
         </is>
       </c>
+      <c r="F836" t="inlineStr">
+        <is>
+          <t>Menos de 20</t>
+        </is>
+      </c>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
@@ -22170,7 +22180,7 @@
       </c>
       <c r="F839" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -22196,7 +22206,7 @@
       </c>
       <c r="F840" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -22222,7 +22232,7 @@
       </c>
       <c r="F841" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -22248,7 +22258,7 @@
       </c>
       <c r="F842" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -22274,7 +22284,7 @@
       </c>
       <c r="F843" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -22300,7 +22310,7 @@
       </c>
       <c r="F844" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -22352,7 +22362,7 @@
       </c>
       <c r="F846" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -22378,7 +22388,7 @@
       </c>
       <c r="F847" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -22404,7 +22414,7 @@
       </c>
       <c r="F848" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -22456,7 +22466,7 @@
       </c>
       <c r="F850" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -22612,7 +22622,7 @@
       </c>
       <c r="F856" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -22638,7 +22648,7 @@
       </c>
       <c r="F857" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -22664,7 +22674,7 @@
       </c>
       <c r="F858" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -22716,7 +22726,7 @@
       </c>
       <c r="F860" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -22768,7 +22778,7 @@
       </c>
       <c r="F862" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -22794,7 +22804,7 @@
       </c>
       <c r="F863" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -22820,7 +22830,7 @@
       </c>
       <c r="F864" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -22846,7 +22856,7 @@
       </c>
       <c r="F865" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -22898,7 +22908,7 @@
       </c>
       <c r="F867" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -22924,7 +22934,7 @@
       </c>
       <c r="F868" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -22950,7 +22960,7 @@
       </c>
       <c r="F869" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -23002,7 +23012,7 @@
       </c>
       <c r="F871" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -23028,7 +23038,7 @@
       </c>
       <c r="F872" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -23080,7 +23090,7 @@
       </c>
       <c r="F874" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -23106,7 +23116,7 @@
       </c>
       <c r="F875" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -23210,7 +23220,7 @@
       </c>
       <c r="F879" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -23340,7 +23350,7 @@
       </c>
       <c r="F884" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -23392,7 +23402,7 @@
       </c>
       <c r="F886" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -23470,7 +23480,7 @@
       </c>
       <c r="F889" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -23522,7 +23532,7 @@
       </c>
       <c r="F891" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -23548,7 +23558,7 @@
       </c>
       <c r="F892" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -23574,7 +23584,7 @@
       </c>
       <c r="F893" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -23600,7 +23610,7 @@
       </c>
       <c r="F894" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -23652,7 +23662,7 @@
       </c>
       <c r="F896" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -23704,7 +23714,7 @@
       </c>
       <c r="F898" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -23730,7 +23740,7 @@
       </c>
       <c r="F899" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -23782,7 +23792,7 @@
       </c>
       <c r="F901" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -23808,7 +23818,7 @@
       </c>
       <c r="F902" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -23860,7 +23870,7 @@
       </c>
       <c r="F904" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -24014,6 +24024,11 @@
           <t>mãe com covid</t>
         </is>
       </c>
+      <c r="F910" t="inlineStr">
+        <is>
+          <t>Menos de 20</t>
+        </is>
+      </c>
     </row>
     <row r="911">
       <c r="A911" t="inlineStr">
@@ -24063,7 +24078,7 @@
       </c>
       <c r="F912" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -24089,7 +24104,7 @@
       </c>
       <c r="F913" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -24193,7 +24208,7 @@
       </c>
       <c r="F917" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -24219,7 +24234,7 @@
       </c>
       <c r="F918" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -24245,7 +24260,7 @@
       </c>
       <c r="F919" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -24271,7 +24286,7 @@
       </c>
       <c r="F920" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -24349,7 +24364,7 @@
       </c>
       <c r="F923" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -24427,7 +24442,7 @@
       </c>
       <c r="F926" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -24453,7 +24468,7 @@
       </c>
       <c r="F927" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -24479,7 +24494,7 @@
       </c>
       <c r="F928" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -24552,7 +24567,7 @@
       </c>
       <c r="E931" t="inlineStr">
         <is>
-          <t>obesidade/deficicência auditiva</t>
+          <t>obesidade/deficiência auditiva</t>
         </is>
       </c>
       <c r="F931" t="inlineStr">
@@ -24661,7 +24676,7 @@
       </c>
       <c r="F935" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -24713,7 +24728,7 @@
       </c>
       <c r="F937" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -24739,7 +24754,7 @@
       </c>
       <c r="F938" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -24791,7 +24806,7 @@
       </c>
       <c r="F940" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -24817,7 +24832,7 @@
       </c>
       <c r="F941" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -24869,7 +24884,7 @@
       </c>
       <c r="F943" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -24916,12 +24931,12 @@
       </c>
       <c r="E945" t="inlineStr">
         <is>
-          <t>doença cardiovascular crônica/hipertensão arterial sistêmica/doença arterial coronariana/hiperplasia prostática benigna</t>
+          <t>doença cardiovascular crônica/hipertensão arterial sistêmica/doença arterial coronariana/hiperplasia de próstata</t>
         </is>
       </c>
       <c r="F945" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -24947,7 +24962,7 @@
       </c>
       <c r="F946" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -24999,7 +25014,7 @@
       </c>
       <c r="F948" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -25023,6 +25038,11 @@
           <t>sem comorbidade</t>
         </is>
       </c>
+      <c r="F949" t="inlineStr">
+        <is>
+          <t>Menos de 20</t>
+        </is>
+      </c>
     </row>
     <row r="950">
       <c r="A950" t="inlineStr">
@@ -25046,7 +25066,7 @@
       </c>
       <c r="F950" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -25124,7 +25144,7 @@
       </c>
       <c r="F953" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -25150,7 +25170,7 @@
       </c>
       <c r="F954" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -25176,7 +25196,7 @@
       </c>
       <c r="F955" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -25254,7 +25274,7 @@
       </c>
       <c r="F958" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -25280,7 +25300,7 @@
       </c>
       <c r="F959" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -25436,7 +25456,7 @@
       </c>
       <c r="F965" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -25462,7 +25482,7 @@
       </c>
       <c r="F966" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -25514,7 +25534,7 @@
       </c>
       <c r="F968" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -25566,7 +25586,7 @@
       </c>
       <c r="F970" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -25592,7 +25612,7 @@
       </c>
       <c r="F971" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -25696,7 +25716,7 @@
       </c>
       <c r="F975" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -25722,7 +25742,7 @@
       </c>
       <c r="F976" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -25800,7 +25820,7 @@
       </c>
       <c r="F979" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -25878,7 +25898,7 @@
       </c>
       <c r="F982" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -25904,7 +25924,7 @@
       </c>
       <c r="F983" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -25982,7 +26002,7 @@
       </c>
       <c r="F986" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -26034,7 +26054,7 @@
       </c>
       <c r="F988" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -26060,7 +26080,7 @@
       </c>
       <c r="F989" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -26086,7 +26106,7 @@
       </c>
       <c r="F990" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -26112,7 +26132,7 @@
       </c>
       <c r="F991" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -26138,7 +26158,7 @@
       </c>
       <c r="F992" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -26164,7 +26184,7 @@
       </c>
       <c r="F993" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -26242,7 +26262,7 @@
       </c>
       <c r="F996" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -26268,7 +26288,7 @@
       </c>
       <c r="F997" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -26294,7 +26314,7 @@
       </c>
       <c r="F998" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -26450,7 +26470,7 @@
       </c>
       <c r="F1004" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -26476,7 +26496,7 @@
       </c>
       <c r="F1005" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -26528,7 +26548,7 @@
       </c>
       <c r="F1007" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -26554,7 +26574,7 @@
       </c>
       <c r="F1008" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -26580,7 +26600,7 @@
       </c>
       <c r="F1009" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -26606,7 +26626,7 @@
       </c>
       <c r="F1010" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -26632,7 +26652,7 @@
       </c>
       <c r="F1011" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -26658,7 +26678,7 @@
       </c>
       <c r="F1012" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -26684,7 +26704,7 @@
       </c>
       <c r="F1013" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -26788,7 +26808,7 @@
       </c>
       <c r="F1017" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -26840,7 +26860,7 @@
       </c>
       <c r="F1019" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -26866,7 +26886,7 @@
       </c>
       <c r="F1020" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -27048,7 +27068,7 @@
       </c>
       <c r="F1027" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -27126,7 +27146,7 @@
       </c>
       <c r="F1030" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -27152,7 +27172,7 @@
       </c>
       <c r="F1031" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -27204,7 +27224,7 @@
       </c>
       <c r="F1033" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -27282,7 +27302,7 @@
       </c>
       <c r="F1036" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -27334,7 +27354,7 @@
       </c>
       <c r="F1038" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -27360,7 +27380,7 @@
       </c>
       <c r="F1039" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -27438,7 +27458,7 @@
       </c>
       <c r="F1042" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -27464,7 +27484,7 @@
       </c>
       <c r="F1043" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -27490,7 +27510,7 @@
       </c>
       <c r="F1044" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -27542,7 +27562,7 @@
       </c>
       <c r="F1046" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -27568,7 +27588,7 @@
       </c>
       <c r="F1047" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -27698,7 +27718,7 @@
       </c>
       <c r="F1052" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -27724,7 +27744,7 @@
       </c>
       <c r="F1053" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -27776,7 +27796,7 @@
       </c>
       <c r="F1055" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -27828,7 +27848,7 @@
       </c>
       <c r="F1057" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -27958,7 +27978,7 @@
       </c>
       <c r="F1062" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -27984,7 +28004,7 @@
       </c>
       <c r="F1063" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -28010,7 +28030,7 @@
       </c>
       <c r="F1064" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -28036,7 +28056,7 @@
       </c>
       <c r="F1065" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -28140,7 +28160,7 @@
       </c>
       <c r="F1069" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -28166,7 +28186,7 @@
       </c>
       <c r="F1070" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -28192,7 +28212,7 @@
       </c>
       <c r="F1071" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -28426,7 +28446,7 @@
       </c>
       <c r="F1080" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -28478,7 +28498,7 @@
       </c>
       <c r="F1082" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -28504,7 +28524,7 @@
       </c>
       <c r="F1083" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -28530,7 +28550,7 @@
       </c>
       <c r="F1084" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -28556,7 +28576,7 @@
       </c>
       <c r="F1085" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -28634,7 +28654,7 @@
       </c>
       <c r="F1088" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -28660,7 +28680,7 @@
       </c>
       <c r="F1089" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -28738,7 +28758,7 @@
       </c>
       <c r="F1092" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -28764,7 +28784,7 @@
       </c>
       <c r="F1093" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -28790,7 +28810,7 @@
       </c>
       <c r="F1094" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -28816,7 +28836,7 @@
       </c>
       <c r="F1095" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -28842,7 +28862,7 @@
       </c>
       <c r="F1096" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -28920,7 +28940,7 @@
       </c>
       <c r="F1099" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -28946,7 +28966,7 @@
       </c>
       <c r="F1100" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -28998,7 +29018,7 @@
       </c>
       <c r="F1102" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -29050,7 +29070,7 @@
       </c>
       <c r="F1104" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -29102,7 +29122,7 @@
       </c>
       <c r="F1106" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -29128,7 +29148,7 @@
       </c>
       <c r="F1107" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -29154,7 +29174,7 @@
       </c>
       <c r="F1108" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -29232,7 +29252,7 @@
       </c>
       <c r="F1111" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -29258,7 +29278,7 @@
       </c>
       <c r="F1112" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -29284,7 +29304,7 @@
       </c>
       <c r="F1113" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -29336,7 +29356,7 @@
       </c>
       <c r="F1115" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -29388,7 +29408,7 @@
       </c>
       <c r="F1117" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -29414,7 +29434,7 @@
       </c>
       <c r="F1118" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -29544,7 +29564,7 @@
       </c>
       <c r="F1123" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -29570,7 +29590,7 @@
       </c>
       <c r="F1124" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -29596,7 +29616,7 @@
       </c>
       <c r="F1125" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -29622,7 +29642,7 @@
       </c>
       <c r="F1126" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -29648,7 +29668,7 @@
       </c>
       <c r="F1127" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -29674,7 +29694,7 @@
       </c>
       <c r="F1128" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -29726,7 +29746,7 @@
       </c>
       <c r="F1130" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -29752,7 +29772,7 @@
       </c>
       <c r="F1131" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -29778,7 +29798,7 @@
       </c>
       <c r="F1132" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -29804,7 +29824,7 @@
       </c>
       <c r="F1133" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -29830,7 +29850,7 @@
       </c>
       <c r="F1134" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -29856,7 +29876,7 @@
       </c>
       <c r="F1135" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -29882,7 +29902,7 @@
       </c>
       <c r="F1136" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -29908,7 +29928,7 @@
       </c>
       <c r="F1137" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -29960,7 +29980,7 @@
       </c>
       <c r="F1139" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -29986,7 +30006,7 @@
       </c>
       <c r="F1140" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -30012,7 +30032,7 @@
       </c>
       <c r="F1141" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -30038,7 +30058,7 @@
       </c>
       <c r="F1142" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -30064,7 +30084,7 @@
       </c>
       <c r="F1143" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -30090,7 +30110,7 @@
       </c>
       <c r="F1144" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -30116,7 +30136,7 @@
       </c>
       <c r="F1145" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -30246,7 +30266,7 @@
       </c>
       <c r="F1150" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -30298,7 +30318,7 @@
       </c>
       <c r="F1152" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -30324,7 +30344,7 @@
       </c>
       <c r="F1153" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -30428,7 +30448,7 @@
       </c>
       <c r="F1157" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -30610,7 +30630,7 @@
       </c>
       <c r="F1164" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -30662,7 +30682,7 @@
       </c>
       <c r="F1166" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -30714,7 +30734,7 @@
       </c>
       <c r="F1168" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -30766,7 +30786,7 @@
       </c>
       <c r="F1170" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -30844,7 +30864,7 @@
       </c>
       <c r="F1173" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -31000,7 +31020,7 @@
       </c>
       <c r="F1179" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -31052,7 +31072,7 @@
       </c>
       <c r="F1181" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -31078,7 +31098,7 @@
       </c>
       <c r="F1182" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -31099,7 +31119,7 @@
       </c>
       <c r="E1183" t="inlineStr">
         <is>
-          <t>diabetes/doença renal crônica/hipertensão arterial sistêmica/ddoença renal crônica</t>
+          <t>diabetes/doença renal crônica/hipertensão arterial sistêmica/dialitico</t>
         </is>
       </c>
       <c r="F1183" t="inlineStr">
@@ -31130,7 +31150,7 @@
       </c>
       <c r="F1184" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -31156,7 +31176,7 @@
       </c>
       <c r="F1185" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -31182,7 +31202,7 @@
       </c>
       <c r="F1186" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -31208,7 +31228,7 @@
       </c>
       <c r="F1187" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -31234,7 +31254,7 @@
       </c>
       <c r="F1188" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -31312,7 +31332,7 @@
       </c>
       <c r="F1191" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -31364,7 +31384,7 @@
       </c>
       <c r="F1193" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -31390,7 +31410,7 @@
       </c>
       <c r="F1194" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -31416,7 +31436,7 @@
       </c>
       <c r="F1195" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -31494,7 +31514,7 @@
       </c>
       <c r="F1198" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -31520,7 +31540,7 @@
       </c>
       <c r="F1199" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -31546,7 +31566,7 @@
       </c>
       <c r="F1200" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -31624,7 +31644,7 @@
       </c>
       <c r="F1203" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -31650,7 +31670,7 @@
       </c>
       <c r="F1204" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -31702,7 +31722,7 @@
       </c>
       <c r="F1206" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -31728,7 +31748,7 @@
       </c>
       <c r="F1207" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -31806,7 +31826,7 @@
       </c>
       <c r="F1210" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -31884,7 +31904,7 @@
       </c>
       <c r="F1213" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -32014,7 +32034,7 @@
       </c>
       <c r="F1218" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -32066,7 +32086,7 @@
       </c>
       <c r="F1220" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -32144,7 +32164,7 @@
       </c>
       <c r="F1223" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -32196,7 +32216,7 @@
       </c>
       <c r="F1225" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -32222,7 +32242,7 @@
       </c>
       <c r="F1226" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -32248,7 +32268,7 @@
       </c>
       <c r="F1227" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -32274,7 +32294,7 @@
       </c>
       <c r="F1228" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -32326,7 +32346,7 @@
       </c>
       <c r="F1230" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -32352,7 +32372,7 @@
       </c>
       <c r="F1231" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -32378,7 +32398,7 @@
       </c>
       <c r="F1232" t="inlineStr">
         <is>
-          <t>Menos de 20 anos</t>
+          <t>Menos de 20</t>
         </is>
       </c>
     </row>
@@ -32404,7 +32424,7 @@
       </c>
       <c r="F1233" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -32430,7 +32450,7 @@
       </c>
       <c r="F1234" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -32456,7 +32476,7 @@
       </c>
       <c r="F1235" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -32508,7 +32528,7 @@
       </c>
       <c r="F1237" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -32560,7 +32580,7 @@
       </c>
       <c r="F1239" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -32586,7 +32606,7 @@
       </c>
       <c r="F1240" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -32612,7 +32632,7 @@
       </c>
       <c r="F1241" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -32638,7 +32658,7 @@
       </c>
       <c r="F1242" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -32664,7 +32684,7 @@
       </c>
       <c r="F1243" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -32768,7 +32788,7 @@
       </c>
       <c r="F1247" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -32794,7 +32814,7 @@
       </c>
       <c r="F1248" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -32820,7 +32840,7 @@
       </c>
       <c r="F1249" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -32846,7 +32866,7 @@
       </c>
       <c r="F1250" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -32924,7 +32944,7 @@
       </c>
       <c r="F1253" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -32976,7 +32996,7 @@
       </c>
       <c r="F1255" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -33002,7 +33022,7 @@
       </c>
       <c r="F1256" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -33028,7 +33048,7 @@
       </c>
       <c r="F1257" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -33054,7 +33074,7 @@
       </c>
       <c r="F1258" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -33106,7 +33126,7 @@
       </c>
       <c r="F1260" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -33158,7 +33178,7 @@
       </c>
       <c r="F1262" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -33262,7 +33282,7 @@
       </c>
       <c r="F1266" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -33288,7 +33308,7 @@
       </c>
       <c r="F1267" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -33314,7 +33334,7 @@
       </c>
       <c r="F1268" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -33340,7 +33360,7 @@
       </c>
       <c r="F1269" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -33366,7 +33386,7 @@
       </c>
       <c r="F1270" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -33418,7 +33438,7 @@
       </c>
       <c r="F1272" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -33444,7 +33464,7 @@
       </c>
       <c r="F1273" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -33522,7 +33542,7 @@
       </c>
       <c r="F1276" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -33548,7 +33568,7 @@
       </c>
       <c r="F1277" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -33626,7 +33646,7 @@
       </c>
       <c r="F1280" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -33704,7 +33724,7 @@
       </c>
       <c r="F1283" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -33756,7 +33776,7 @@
       </c>
       <c r="F1285" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -33782,7 +33802,7 @@
       </c>
       <c r="F1286" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -33808,7 +33828,7 @@
       </c>
       <c r="F1287" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -33834,7 +33854,7 @@
       </c>
       <c r="F1288" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -33860,7 +33880,7 @@
       </c>
       <c r="F1289" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -33938,7 +33958,7 @@
       </c>
       <c r="F1292" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -34016,7 +34036,7 @@
       </c>
       <c r="F1295" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -34068,7 +34088,7 @@
       </c>
       <c r="F1297" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -34094,7 +34114,7 @@
       </c>
       <c r="F1298" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -34172,7 +34192,7 @@
       </c>
       <c r="F1301" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -34224,7 +34244,7 @@
       </c>
       <c r="F1303" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -34250,7 +34270,7 @@
       </c>
       <c r="F1304" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -34302,7 +34322,7 @@
       </c>
       <c r="F1306" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -34354,7 +34374,7 @@
       </c>
       <c r="F1308" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -34380,7 +34400,7 @@
       </c>
       <c r="F1309" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -34432,7 +34452,7 @@
       </c>
       <c r="F1311" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -34458,7 +34478,7 @@
       </c>
       <c r="F1312" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -34484,7 +34504,7 @@
       </c>
       <c r="F1313" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -34536,7 +34556,7 @@
       </c>
       <c r="F1315" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -34588,7 +34608,7 @@
       </c>
       <c r="F1317" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -34614,7 +34634,7 @@
       </c>
       <c r="F1318" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -34640,7 +34660,7 @@
       </c>
       <c r="F1319" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -34666,7 +34686,7 @@
       </c>
       <c r="F1320" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -34692,7 +34712,7 @@
       </c>
       <c r="F1321" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -34822,7 +34842,7 @@
       </c>
       <c r="F1326" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -34848,7 +34868,7 @@
       </c>
       <c r="F1327" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -34900,7 +34920,7 @@
       </c>
       <c r="F1329" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -34952,7 +34972,7 @@
       </c>
       <c r="F1331" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -35082,7 +35102,7 @@
       </c>
       <c r="F1336" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -35134,7 +35154,7 @@
       </c>
       <c r="F1338" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -35160,7 +35180,7 @@
       </c>
       <c r="F1339" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -35212,7 +35232,7 @@
       </c>
       <c r="F1341" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -35264,7 +35284,7 @@
       </c>
       <c r="F1343" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -35342,7 +35362,7 @@
       </c>
       <c r="F1346" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -35368,7 +35388,7 @@
       </c>
       <c r="F1347" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -35394,7 +35414,7 @@
       </c>
       <c r="F1348" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -35472,7 +35492,7 @@
       </c>
       <c r="F1351" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -35498,7 +35518,7 @@
       </c>
       <c r="F1352" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -35550,7 +35570,7 @@
       </c>
       <c r="F1354" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -35602,7 +35622,7 @@
       </c>
       <c r="F1356" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -35628,7 +35648,7 @@
       </c>
       <c r="F1357" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -35706,7 +35726,7 @@
       </c>
       <c r="F1360" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -35732,7 +35752,7 @@
       </c>
       <c r="F1361" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -35758,7 +35778,7 @@
       </c>
       <c r="F1362" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -35784,7 +35804,7 @@
       </c>
       <c r="F1363" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -35810,7 +35830,7 @@
       </c>
       <c r="F1364" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -35836,7 +35856,7 @@
       </c>
       <c r="F1365" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -35888,7 +35908,7 @@
       </c>
       <c r="F1367" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -35914,7 +35934,7 @@
       </c>
       <c r="F1368" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -35940,7 +35960,7 @@
       </c>
       <c r="F1369" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -35966,7 +35986,7 @@
       </c>
       <c r="F1370" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -36018,7 +36038,7 @@
       </c>
       <c r="F1372" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -36044,7 +36064,7 @@
       </c>
       <c r="F1373" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -36070,7 +36090,7 @@
       </c>
       <c r="F1374" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -36096,7 +36116,7 @@
       </c>
       <c r="F1375" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -36122,7 +36142,7 @@
       </c>
       <c r="F1376" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -36148,7 +36168,7 @@
       </c>
       <c r="F1377" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -36200,7 +36220,7 @@
       </c>
       <c r="F1379" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -36304,7 +36324,7 @@
       </c>
       <c r="F1383" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -36330,7 +36350,7 @@
       </c>
       <c r="F1384" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -36408,7 +36428,7 @@
       </c>
       <c r="F1387" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -36434,7 +36454,7 @@
       </c>
       <c r="F1388" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -36460,7 +36480,7 @@
       </c>
       <c r="F1389" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -36486,7 +36506,7 @@
       </c>
       <c r="F1390" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -36512,7 +36532,7 @@
       </c>
       <c r="F1391" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -36538,7 +36558,7 @@
       </c>
       <c r="F1392" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -36564,7 +36584,7 @@
       </c>
       <c r="F1393" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -36590,7 +36610,7 @@
       </c>
       <c r="F1394" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -36616,7 +36636,7 @@
       </c>
       <c r="F1395" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -36720,7 +36740,7 @@
       </c>
       <c r="F1399" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -36746,7 +36766,7 @@
       </c>
       <c r="F1400" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -36876,7 +36896,7 @@
       </c>
       <c r="F1405" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -37006,7 +37026,7 @@
       </c>
       <c r="F1410" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -37032,7 +37052,7 @@
       </c>
       <c r="F1411" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -37084,7 +37104,7 @@
       </c>
       <c r="F1413" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -37136,7 +37156,7 @@
       </c>
       <c r="F1415" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -37214,7 +37234,7 @@
       </c>
       <c r="F1418" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -37266,7 +37286,7 @@
       </c>
       <c r="F1420" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -37344,7 +37364,7 @@
       </c>
       <c r="F1423" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -37422,7 +37442,7 @@
       </c>
       <c r="F1426" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -37656,7 +37676,7 @@
       </c>
       <c r="F1435" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -37734,7 +37754,7 @@
       </c>
       <c r="F1438" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -37812,7 +37832,7 @@
       </c>
       <c r="F1441" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -37838,7 +37858,7 @@
       </c>
       <c r="F1442" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -37890,7 +37910,7 @@
       </c>
       <c r="F1444" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -37968,7 +37988,7 @@
       </c>
       <c r="F1447" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -38046,7 +38066,7 @@
       </c>
       <c r="F1450" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -38072,7 +38092,7 @@
       </c>
       <c r="F1451" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -38098,7 +38118,7 @@
       </c>
       <c r="F1452" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -38124,7 +38144,7 @@
       </c>
       <c r="F1453" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -38254,7 +38274,7 @@
       </c>
       <c r="F1458" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -38384,7 +38404,7 @@
       </c>
       <c r="F1463" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -38410,7 +38430,7 @@
       </c>
       <c r="F1464" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -38436,7 +38456,7 @@
       </c>
       <c r="F1465" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -38514,7 +38534,7 @@
       </c>
       <c r="F1468" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -38540,7 +38560,7 @@
       </c>
       <c r="F1469" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -38566,7 +38586,7 @@
       </c>
       <c r="F1470" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -38618,7 +38638,7 @@
       </c>
       <c r="F1472" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -38644,7 +38664,7 @@
       </c>
       <c r="F1473" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -38670,7 +38690,7 @@
       </c>
       <c r="F1474" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -38696,7 +38716,7 @@
       </c>
       <c r="F1475" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -38722,7 +38742,7 @@
       </c>
       <c r="F1476" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -38826,7 +38846,7 @@
       </c>
       <c r="F1480" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -38852,7 +38872,7 @@
       </c>
       <c r="F1481" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -38930,7 +38950,7 @@
       </c>
       <c r="F1484" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -38982,7 +39002,7 @@
       </c>
       <c r="F1486" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -39008,7 +39028,7 @@
       </c>
       <c r="F1487" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -39034,7 +39054,7 @@
       </c>
       <c r="F1488" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -39086,7 +39106,7 @@
       </c>
       <c r="F1490" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -39112,7 +39132,7 @@
       </c>
       <c r="F1491" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -39242,7 +39262,7 @@
       </c>
       <c r="F1496" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -39294,7 +39314,7 @@
       </c>
       <c r="F1498" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -39346,7 +39366,7 @@
       </c>
       <c r="F1500" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -39398,7 +39418,7 @@
       </c>
       <c r="F1502" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -39424,7 +39444,7 @@
       </c>
       <c r="F1503" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -39476,7 +39496,7 @@
       </c>
       <c r="F1505" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -39528,7 +39548,7 @@
       </c>
       <c r="F1507" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -39554,7 +39574,7 @@
       </c>
       <c r="F1508" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -39575,12 +39595,12 @@
       </c>
       <c r="E1509" t="inlineStr">
         <is>
-          <t>pneumopatia crônica/hipertensão arterial sistêmica/hiperplasia benigna próstata</t>
+          <t>pneumopatia crônica/hipertensão arterial sistêmica/hiperplasia de próstata</t>
         </is>
       </c>
       <c r="F1509" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -39632,7 +39652,7 @@
       </c>
       <c r="F1511" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -39684,7 +39704,7 @@
       </c>
       <c r="F1513" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -39736,7 +39756,7 @@
       </c>
       <c r="F1515" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -39788,7 +39808,7 @@
       </c>
       <c r="F1517" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -39866,7 +39886,7 @@
       </c>
       <c r="F1520" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -39892,7 +39912,7 @@
       </c>
       <c r="F1521" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -39996,7 +40016,7 @@
       </c>
       <c r="F1525" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -40048,7 +40068,7 @@
       </c>
       <c r="F1527" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -40074,7 +40094,7 @@
       </c>
       <c r="F1528" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -40100,7 +40120,7 @@
       </c>
       <c r="F1529" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -40152,7 +40172,7 @@
       </c>
       <c r="F1531" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -40178,7 +40198,7 @@
       </c>
       <c r="F1532" t="inlineStr">
         <is>
-          <t>Menos de 20 anos</t>
+          <t>Menos de 20</t>
         </is>
       </c>
     </row>
@@ -40230,7 +40250,7 @@
       </c>
       <c r="F1534" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -40282,7 +40302,7 @@
       </c>
       <c r="F1536" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -40308,7 +40328,7 @@
       </c>
       <c r="F1537" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -40412,7 +40432,7 @@
       </c>
       <c r="F1541" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -40464,7 +40484,7 @@
       </c>
       <c r="F1543" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -40516,7 +40536,7 @@
       </c>
       <c r="F1545" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -40594,7 +40614,7 @@
       </c>
       <c r="F1548" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -40620,7 +40640,7 @@
       </c>
       <c r="F1549" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -40646,7 +40666,7 @@
       </c>
       <c r="F1550" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -40672,7 +40692,7 @@
       </c>
       <c r="F1551" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -40724,7 +40744,7 @@
       </c>
       <c r="F1553" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -40750,7 +40770,7 @@
       </c>
       <c r="F1554" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -40802,7 +40822,7 @@
       </c>
       <c r="F1556" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -40880,7 +40900,7 @@
       </c>
       <c r="F1559" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -40932,7 +40952,7 @@
       </c>
       <c r="F1561" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -40958,7 +40978,7 @@
       </c>
       <c r="F1562" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -40984,7 +41004,7 @@
       </c>
       <c r="F1563" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -41010,7 +41030,7 @@
       </c>
       <c r="F1564" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -41036,7 +41056,7 @@
       </c>
       <c r="F1565" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -41114,7 +41134,7 @@
       </c>
       <c r="F1568" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -41140,7 +41160,7 @@
       </c>
       <c r="F1569" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -41374,7 +41394,7 @@
       </c>
       <c r="F1578" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -41452,7 +41472,7 @@
       </c>
       <c r="F1581" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -41478,7 +41498,7 @@
       </c>
       <c r="F1582" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -41556,7 +41576,7 @@
       </c>
       <c r="F1585" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -41582,7 +41602,7 @@
       </c>
       <c r="F1586" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -41634,7 +41654,7 @@
       </c>
       <c r="F1588" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -41686,7 +41706,7 @@
       </c>
       <c r="F1590" t="inlineStr">
         <is>
-          <t>Menos de 20 anos</t>
+          <t>Menos de 20</t>
         </is>
       </c>
     </row>
@@ -41712,7 +41732,7 @@
       </c>
       <c r="F1591" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -41738,7 +41758,7 @@
       </c>
       <c r="F1592" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -41894,7 +41914,7 @@
       </c>
       <c r="F1598" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -42050,7 +42070,7 @@
       </c>
       <c r="F1604" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -42076,7 +42096,7 @@
       </c>
       <c r="F1605" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -42128,7 +42148,7 @@
       </c>
       <c r="F1607" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -42180,7 +42200,7 @@
       </c>
       <c r="F1609" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -42258,7 +42278,7 @@
       </c>
       <c r="F1612" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -42284,7 +42304,7 @@
       </c>
       <c r="F1613" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -42336,7 +42356,7 @@
       </c>
       <c r="F1615" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -42362,7 +42382,7 @@
       </c>
       <c r="F1616" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -42388,7 +42408,7 @@
       </c>
       <c r="F1617" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -42409,12 +42429,12 @@
       </c>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>hipertensão arterial sistêmica/doença pulmonar obstrutiva crônica/doença renal crônica dialitica</t>
+          <t>hipertensão arterial sistêmica/doença pulmonar obstrutiva crônica/doença renal crônica dialitico</t>
         </is>
       </c>
       <c r="F1618" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -42440,7 +42460,7 @@
       </c>
       <c r="F1619" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -42518,7 +42538,7 @@
       </c>
       <c r="F1622" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -42596,7 +42616,7 @@
       </c>
       <c r="F1625" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -42622,7 +42642,7 @@
       </c>
       <c r="F1626" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -42648,7 +42668,7 @@
       </c>
       <c r="F1627" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -42700,7 +42720,7 @@
       </c>
       <c r="F1629" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -42752,7 +42772,7 @@
       </c>
       <c r="F1631" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -42830,7 +42850,7 @@
       </c>
       <c r="F1634" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -42856,7 +42876,7 @@
       </c>
       <c r="F1635" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -42908,7 +42928,7 @@
       </c>
       <c r="F1637" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -43064,7 +43084,7 @@
       </c>
       <c r="F1643" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -43142,7 +43162,7 @@
       </c>
       <c r="F1646" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -43272,7 +43292,7 @@
       </c>
       <c r="F1651" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
         </is>
       </c>
     </row>
@@ -43324,7 +43344,605 @@
       </c>
       <c r="F1653" t="inlineStr">
         <is>
-          <t>De 60 a 80</t>
+          <t>60 a 80</t>
+        </is>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" t="inlineStr">
+        <is>
+          <t>masculino</t>
+        </is>
+      </c>
+      <c r="B1654">
+        <v>43</v>
+      </c>
+      <c r="C1654">
+        <v>55</v>
+      </c>
+      <c r="D1654" s="2">
+        <v>44353</v>
+      </c>
+      <c r="E1654" t="inlineStr">
+        <is>
+          <t>sem comorbidade</t>
+        </is>
+      </c>
+      <c r="F1654" t="inlineStr">
+        <is>
+          <t>40 a 60</t>
+        </is>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" t="inlineStr">
+        <is>
+          <t>masculino</t>
+        </is>
+      </c>
+      <c r="B1655">
+        <v>43</v>
+      </c>
+      <c r="C1655">
+        <v>60</v>
+      </c>
+      <c r="D1655" s="2">
+        <v>44352</v>
+      </c>
+      <c r="E1655" t="inlineStr">
+        <is>
+          <t>sem comorbidade</t>
+        </is>
+      </c>
+      <c r="F1655" t="inlineStr">
+        <is>
+          <t>40 a 60</t>
+        </is>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" t="inlineStr">
+        <is>
+          <t>feminino</t>
+        </is>
+      </c>
+      <c r="B1656">
+        <v>43</v>
+      </c>
+      <c r="C1656">
+        <v>49</v>
+      </c>
+      <c r="D1656" s="2">
+        <v>44350</v>
+      </c>
+      <c r="E1656" t="inlineStr">
+        <is>
+          <t>imunodeficiência/imunodepressão</t>
+        </is>
+      </c>
+      <c r="F1656" t="inlineStr">
+        <is>
+          <t>40 a 60</t>
+        </is>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" t="inlineStr">
+        <is>
+          <t>masculino</t>
+        </is>
+      </c>
+      <c r="B1657">
+        <v>43</v>
+      </c>
+      <c r="C1657">
+        <v>54</v>
+      </c>
+      <c r="D1657" s="2">
+        <v>44351</v>
+      </c>
+      <c r="E1657" t="inlineStr">
+        <is>
+          <t>sem comorbidade</t>
+        </is>
+      </c>
+      <c r="F1657" t="inlineStr">
+        <is>
+          <t>40 a 60</t>
+        </is>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" t="inlineStr">
+        <is>
+          <t>masculino</t>
+        </is>
+      </c>
+      <c r="B1658">
+        <v>43</v>
+      </c>
+      <c r="C1658">
+        <v>92</v>
+      </c>
+      <c r="D1658" s="2">
+        <v>44349</v>
+      </c>
+      <c r="E1658" t="inlineStr">
+        <is>
+          <t>arterite temporal/amaurose bilateral</t>
+        </is>
+      </c>
+      <c r="F1658" t="inlineStr">
+        <is>
+          <t>Mais de 80</t>
+        </is>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" t="inlineStr">
+        <is>
+          <t>masculino</t>
+        </is>
+      </c>
+      <c r="B1659">
+        <v>44</v>
+      </c>
+      <c r="C1659">
+        <v>78</v>
+      </c>
+      <c r="D1659" s="2">
+        <v>44351</v>
+      </c>
+      <c r="E1659" t="inlineStr">
+        <is>
+          <t>diabetes/hipertensão arterial sistêmica/obesidade</t>
+        </is>
+      </c>
+      <c r="F1659" t="inlineStr">
+        <is>
+          <t>60 a 80</t>
+        </is>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" t="inlineStr">
+        <is>
+          <t>masculino</t>
+        </is>
+      </c>
+      <c r="B1660">
+        <v>44</v>
+      </c>
+      <c r="C1660">
+        <v>62</v>
+      </c>
+      <c r="D1660" s="2">
+        <v>44350</v>
+      </c>
+      <c r="E1660" t="inlineStr">
+        <is>
+          <t>doença cardiovascular crônica/diabetes</t>
+        </is>
+      </c>
+      <c r="F1660" t="inlineStr">
+        <is>
+          <t>60 a 80</t>
+        </is>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" t="inlineStr">
+        <is>
+          <t>masculino</t>
+        </is>
+      </c>
+      <c r="B1661">
+        <v>44</v>
+      </c>
+      <c r="C1661">
+        <v>79</v>
+      </c>
+      <c r="D1661" s="2">
+        <v>44352</v>
+      </c>
+      <c r="E1661" t="inlineStr">
+        <is>
+          <t>doença cardiovascular crônica/neoplasia gástrica</t>
+        </is>
+      </c>
+      <c r="F1661" t="inlineStr">
+        <is>
+          <t>60 a 80</t>
+        </is>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" t="inlineStr">
+        <is>
+          <t>feminino</t>
+        </is>
+      </c>
+      <c r="B1662">
+        <v>44</v>
+      </c>
+      <c r="C1662">
+        <v>71</v>
+      </c>
+      <c r="D1662" s="2">
+        <v>44350</v>
+      </c>
+      <c r="E1662" t="inlineStr">
+        <is>
+          <t>diabetes/hipertensão arterial sistêmica</t>
+        </is>
+      </c>
+      <c r="F1662" t="inlineStr">
+        <is>
+          <t>60 a 80</t>
+        </is>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" t="inlineStr">
+        <is>
+          <t>feminino</t>
+        </is>
+      </c>
+      <c r="B1663">
+        <v>44</v>
+      </c>
+      <c r="C1663">
+        <v>59</v>
+      </c>
+      <c r="D1663" s="2">
+        <v>44351</v>
+      </c>
+      <c r="E1663" t="inlineStr">
+        <is>
+          <t>doença cardiovascular crônica/diabetes/obesidade</t>
+        </is>
+      </c>
+      <c r="F1663" t="inlineStr">
+        <is>
+          <t>40 a 60</t>
+        </is>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" t="inlineStr">
+        <is>
+          <t>masculino</t>
+        </is>
+      </c>
+      <c r="B1664">
+        <v>44</v>
+      </c>
+      <c r="C1664">
+        <v>41</v>
+      </c>
+      <c r="D1664" s="2">
+        <v>44351</v>
+      </c>
+      <c r="E1664" t="inlineStr">
+        <is>
+          <t>imunodeficiência/imunodepressão</t>
+        </is>
+      </c>
+      <c r="F1664" t="inlineStr">
+        <is>
+          <t>40 a 60</t>
+        </is>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" t="inlineStr">
+        <is>
+          <t>masculino</t>
+        </is>
+      </c>
+      <c r="B1665">
+        <v>44</v>
+      </c>
+      <c r="C1665">
+        <v>59</v>
+      </c>
+      <c r="D1665" s="2">
+        <v>44352</v>
+      </c>
+      <c r="E1665" t="inlineStr">
+        <is>
+          <t>hipertensão arterial sistêmica/ex tabagista</t>
+        </is>
+      </c>
+      <c r="F1665" t="inlineStr">
+        <is>
+          <t>40 a 60</t>
+        </is>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" t="inlineStr">
+        <is>
+          <t>masculino</t>
+        </is>
+      </c>
+      <c r="B1666">
+        <v>44</v>
+      </c>
+      <c r="C1666">
+        <v>65</v>
+      </c>
+      <c r="D1666" s="2">
+        <v>44352</v>
+      </c>
+      <c r="E1666" t="inlineStr">
+        <is>
+          <t>neoplasia</t>
+        </is>
+      </c>
+      <c r="F1666" t="inlineStr">
+        <is>
+          <t>60 a 80</t>
+        </is>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" t="inlineStr">
+        <is>
+          <t>feminino</t>
+        </is>
+      </c>
+      <c r="B1667">
+        <v>44</v>
+      </c>
+      <c r="C1667">
+        <v>67</v>
+      </c>
+      <c r="D1667" s="2">
+        <v>44352</v>
+      </c>
+      <c r="E1667" t="inlineStr">
+        <is>
+          <t>doença cardiovascular crônica/diabetes/hipotireoidismo</t>
+        </is>
+      </c>
+      <c r="F1667" t="inlineStr">
+        <is>
+          <t>60 a 80</t>
+        </is>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" t="inlineStr">
+        <is>
+          <t>masculino</t>
+        </is>
+      </c>
+      <c r="B1668">
+        <v>44</v>
+      </c>
+      <c r="C1668">
+        <v>49</v>
+      </c>
+      <c r="D1668" s="2">
+        <v>44354</v>
+      </c>
+      <c r="E1668" t="inlineStr">
+        <is>
+          <t>sem comorbidade</t>
+        </is>
+      </c>
+      <c r="F1668" t="inlineStr">
+        <is>
+          <t>40 a 60</t>
+        </is>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" t="inlineStr">
+        <is>
+          <t>masculino</t>
+        </is>
+      </c>
+      <c r="B1669">
+        <v>44</v>
+      </c>
+      <c r="C1669">
+        <v>73</v>
+      </c>
+      <c r="D1669" s="2">
+        <v>44349</v>
+      </c>
+      <c r="E1669" t="inlineStr">
+        <is>
+          <t>doença cardiovascular crônica/diabetes/imunodeficiência/imunodepressão</t>
+        </is>
+      </c>
+      <c r="F1669" t="inlineStr">
+        <is>
+          <t>60 a 80</t>
+        </is>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" t="inlineStr">
+        <is>
+          <t>masculino</t>
+        </is>
+      </c>
+      <c r="B1670">
+        <v>44</v>
+      </c>
+      <c r="C1670">
+        <v>48</v>
+      </c>
+      <c r="D1670" s="2">
+        <v>44350</v>
+      </c>
+      <c r="E1670" t="inlineStr">
+        <is>
+          <t>doença neurológica crônica/etilista</t>
+        </is>
+      </c>
+      <c r="F1670" t="inlineStr">
+        <is>
+          <t>40 a 60</t>
+        </is>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" t="inlineStr">
+        <is>
+          <t>masculino</t>
+        </is>
+      </c>
+      <c r="B1671">
+        <v>44</v>
+      </c>
+      <c r="C1671">
+        <v>56</v>
+      </c>
+      <c r="D1671" s="2">
+        <v>44351</v>
+      </c>
+      <c r="E1671" t="inlineStr">
+        <is>
+          <t>diabetes/hipertensão arterial sistêmica</t>
+        </is>
+      </c>
+      <c r="F1671" t="inlineStr">
+        <is>
+          <t>40 a 60</t>
+        </is>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" t="inlineStr">
+        <is>
+          <t>feminino</t>
+        </is>
+      </c>
+      <c r="B1672">
+        <v>44</v>
+      </c>
+      <c r="C1672">
+        <v>91</v>
+      </c>
+      <c r="D1672" s="2">
+        <v>44353</v>
+      </c>
+      <c r="E1672" t="inlineStr">
+        <is>
+          <t>doença neurológica crônica/hipertensão arterial sistêmica</t>
+        </is>
+      </c>
+      <c r="F1672" t="inlineStr">
+        <is>
+          <t>Mais de 80</t>
+        </is>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" t="inlineStr">
+        <is>
+          <t>masculino</t>
+        </is>
+      </c>
+      <c r="B1673">
+        <v>44</v>
+      </c>
+      <c r="C1673">
+        <v>57</v>
+      </c>
+      <c r="D1673" s="2">
+        <v>44353</v>
+      </c>
+      <c r="E1673" t="inlineStr">
+        <is>
+          <t>asma/diabetes</t>
+        </is>
+      </c>
+      <c r="F1673" t="inlineStr">
+        <is>
+          <t>40 a 60</t>
+        </is>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" t="inlineStr">
+        <is>
+          <t>masculino</t>
+        </is>
+      </c>
+      <c r="B1674">
+        <v>44</v>
+      </c>
+      <c r="C1674">
+        <v>44</v>
+      </c>
+      <c r="D1674" s="2">
+        <v>44352</v>
+      </c>
+      <c r="E1674" t="inlineStr">
+        <is>
+          <t>diabetes</t>
+        </is>
+      </c>
+      <c r="F1674" t="inlineStr">
+        <is>
+          <t>40 a 60</t>
+        </is>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" t="inlineStr">
+        <is>
+          <t>masculino</t>
+        </is>
+      </c>
+      <c r="B1675">
+        <v>44</v>
+      </c>
+      <c r="C1675">
+        <v>89</v>
+      </c>
+      <c r="D1675" s="2">
+        <v>44351</v>
+      </c>
+      <c r="E1675" t="inlineStr">
+        <is>
+          <t>hipertensão arterial sistêmica</t>
+        </is>
+      </c>
+      <c r="F1675" t="inlineStr">
+        <is>
+          <t>Mais de 80</t>
+        </is>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" t="inlineStr">
+        <is>
+          <t>feminino</t>
+        </is>
+      </c>
+      <c r="B1676">
+        <v>44</v>
+      </c>
+      <c r="C1676">
+        <v>51</v>
+      </c>
+      <c r="D1676" s="2">
+        <v>44354</v>
+      </c>
+      <c r="E1676" t="inlineStr">
+        <is>
+          <t>hipotireoidismo</t>
+        </is>
+      </c>
+      <c r="F1676" t="inlineStr">
+        <is>
+          <t>40 a 60</t>
         </is>
       </c>
     </row>
